--- a/biology/Botanique/Oxypeltidae/Oxypeltidae.xlsx
+++ b/biology/Botanique/Oxypeltidae/Oxypeltidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oxypeltidae Lacordaire, 1869 sont une très petite famille de coléoptères, répandus dans les montagnes andines du Chili et de l'Argentine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspect des Oxypeltidae ne montre aucune affinité avec les cérambycidés. Le corps est massif et caractérisé par une coloration métallique verte ou bleuâtre sur l’avant-corps et rouge sur les élytres. Les antennes et pattes sont de couleur bleu métallique. La tête, petite et arrondie, porte deux antennes robustes et dentées ; le pronotum est fourni de crêtes longitudinales ; les élytres, couvertes de ponctuations, sont bidentées à leur apex. Les ailes postérieures, membraneuses, présentent une coloration violette inhabituelle, semblable à celle des Cetoniinae, tandis qu'elles sont transparentes dans presque tous les cérambycidés.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves, typiquement xylophages, attaquent les arbres du genre Nothofagus (genre vicariant du hêtre dans l'hémisphère austral). Les adultes sont diurnes et se trouvent souvent sur le feuillage.
 </t>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Originellement insérés dans les Prioninae, à cause de les carénés latérales du pronotum[pas clair], ils furent après séparés. L'étude sur les ailes postérieures des cérambycidés mit en évidence que les ailes des Oxypeltidae étaient pigmentées de façon inusuelle[1]. L'analyse phylogénétique[2] et plus de récent[pas clair], les analyses sur les larves[3] ont mis en évidence une parentèle loin et incertaine avec les Vesperidae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Originellement insérés dans les Prioninae, à cause de les carénés latérales du pronotum[pas clair], ils furent après séparés. L'étude sur les ailes postérieures des cérambycidés mit en évidence que les ailes des Oxypeltidae étaient pigmentées de façon inusuelle. L'analyse phylogénétique et plus de récent[pas clair], les analyses sur les larves ont mis en évidence une parentèle loin et incertaine avec les Vesperidae.
 Les Oxypeltidae comprennent seulement deux genres et trois espèces :
 Cheloderus Gray, 1832
 Cheloderus childreni Gray, 1832
